--- a/outputs-HGR-r202/train-g__Terrisporobacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Terrisporobacter_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="435">
   <si>
     <t>Row</t>
   </si>
@@ -1067,6 +1068,261 @@
   </si>
   <si>
     <t>label_20298_2_47_4.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_10_5.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_10_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_139.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_141.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_148.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_149.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_152.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_153.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_156.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_161.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_163.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_167.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_170.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_180.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_187.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_197.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_212.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_216.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_218.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_221.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_242.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_256.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_260.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_262.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_264.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_266.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_270.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_271.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_273.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_277.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_280.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS542_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2014_93.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_47_12.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_47_16.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_47_5.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_47_7.fasta</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1103,11 +1359,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1117,6 +1375,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9175,4 +9435,2000 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G86"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="30" customWidth="true"/>
+    <col min="3" max="3" width="29" customWidth="true"/>
+    <col min="4" max="4" width="30.140625" customWidth="true"/>
+    <col min="5" max="5" width="30.140625" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2">
+        <v>0.17764418940884225</v>
+      </c>
+      <c r="C2">
+        <v>0.33475680210505132</v>
+      </c>
+      <c r="D2">
+        <v>0.30916694250546467</v>
+      </c>
+      <c r="E2">
+        <v>0.17843206598064168</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3">
+        <v>0.097115932969700308</v>
+      </c>
+      <c r="C3">
+        <v>0.64935811247866293</v>
+      </c>
+      <c r="D3">
+        <v>0.14119675659732545</v>
+      </c>
+      <c r="E3">
+        <v>0.11232919795431137</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4">
+        <v>0.024275184439786813</v>
+      </c>
+      <c r="C4">
+        <v>0.88630457733064782</v>
+      </c>
+      <c r="D4">
+        <v>0.05733428093438081</v>
+      </c>
+      <c r="E4">
+        <v>0.032085957295184445</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5">
+        <v>0.035998458399034337</v>
+      </c>
+      <c r="C5">
+        <v>0.55550694173084358</v>
+      </c>
+      <c r="D5">
+        <v>0.3604666491654363</v>
+      </c>
+      <c r="E5">
+        <v>0.048027950704685879</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6">
+        <v>0.022266992516233621</v>
+      </c>
+      <c r="C6">
+        <v>0.84608617103551376</v>
+      </c>
+      <c r="D6">
+        <v>0.10356775465562867</v>
+      </c>
+      <c r="E6">
+        <v>0.028079081792623903</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7">
+        <v>0.028929608626140083</v>
+      </c>
+      <c r="C7">
+        <v>0.78060528628817039</v>
+      </c>
+      <c r="D7">
+        <v>0.15290044766216623</v>
+      </c>
+      <c r="E7">
+        <v>0.037564657423523169</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8">
+        <v>0.024095288214442786</v>
+      </c>
+      <c r="C8">
+        <v>0.88364251790278203</v>
+      </c>
+      <c r="D8">
+        <v>0.062163067830678743</v>
+      </c>
+      <c r="E8">
+        <v>0.030099126052096529</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9">
+        <v>0.02106070836918339</v>
+      </c>
+      <c r="C9">
+        <v>0.90964664276993823</v>
+      </c>
+      <c r="D9">
+        <v>0.043321284223594075</v>
+      </c>
+      <c r="E9">
+        <v>0.025971364637284312</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10">
+        <v>0.031386977621143786</v>
+      </c>
+      <c r="C10">
+        <v>0.7766699119232281</v>
+      </c>
+      <c r="D10">
+        <v>0.15208782883492741</v>
+      </c>
+      <c r="E10">
+        <v>0.039855281620700615</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11">
+        <v>0.026677579177902339</v>
+      </c>
+      <c r="C11">
+        <v>0.75141827754978952</v>
+      </c>
+      <c r="D11">
+        <v>0.18638316625516196</v>
+      </c>
+      <c r="E11">
+        <v>0.035520977017146217</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12">
+        <v>0.02113390334608433</v>
+      </c>
+      <c r="C12">
+        <v>0.90426872236675282</v>
+      </c>
+      <c r="D12">
+        <v>0.048285133933411474</v>
+      </c>
+      <c r="E12">
+        <v>0.026312240353751411</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13">
+        <v>0.026506832897841576</v>
+      </c>
+      <c r="C13">
+        <v>0.79258469997083858</v>
+      </c>
+      <c r="D13">
+        <v>0.14621225641476271</v>
+      </c>
+      <c r="E13">
+        <v>0.034696210716557145</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14">
+        <v>0.02644829771308755</v>
+      </c>
+      <c r="C14">
+        <v>0.84852488243365831</v>
+      </c>
+      <c r="D14">
+        <v>0.091438483003647</v>
+      </c>
+      <c r="E14">
+        <v>0.033588336849607062</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15">
+        <v>0.027791859906874054</v>
+      </c>
+      <c r="C15">
+        <v>0.86573708539940408</v>
+      </c>
+      <c r="D15">
+        <v>0.074276953619080252</v>
+      </c>
+      <c r="E15">
+        <v>0.032194101074641671</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16">
+        <v>0.023805065417664632</v>
+      </c>
+      <c r="C16">
+        <v>0.87003096674156333</v>
+      </c>
+      <c r="D16">
+        <v>0.077056417118302523</v>
+      </c>
+      <c r="E16">
+        <v>0.02910755072246949</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17">
+        <v>0.022913224995933592</v>
+      </c>
+      <c r="C17">
+        <v>0.86123629795577972</v>
+      </c>
+      <c r="D17">
+        <v>0.087888819424455825</v>
+      </c>
+      <c r="E17">
+        <v>0.027961657623830807</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18">
+        <v>0.026652203668341347</v>
+      </c>
+      <c r="C18">
+        <v>0.79671648323688982</v>
+      </c>
+      <c r="D18">
+        <v>0.14488282079851125</v>
+      </c>
+      <c r="E18">
+        <v>0.031748492296257508</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19">
+        <v>0.030000886945755451</v>
+      </c>
+      <c r="C19">
+        <v>0.74902334544887461</v>
+      </c>
+      <c r="D19">
+        <v>0.18179905338578831</v>
+      </c>
+      <c r="E19">
+        <v>0.03917671421958175</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20">
+        <v>0.026410550200415477</v>
+      </c>
+      <c r="C20">
+        <v>0.8594784746482983</v>
+      </c>
+      <c r="D20">
+        <v>0.081909102182209745</v>
+      </c>
+      <c r="E20">
+        <v>0.032201872969076513</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21">
+        <v>0.030146636476885345</v>
+      </c>
+      <c r="C21">
+        <v>0.8056087151308251</v>
+      </c>
+      <c r="D21">
+        <v>0.13215901333082089</v>
+      </c>
+      <c r="E21">
+        <v>0.032085635061468581</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22">
+        <v>0.024893197962599967</v>
+      </c>
+      <c r="C22">
+        <v>0.82040295592830459</v>
+      </c>
+      <c r="D22">
+        <v>0.12210951439355949</v>
+      </c>
+      <c r="E22">
+        <v>0.032594331715535975</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23">
+        <v>0.029271918556337189</v>
+      </c>
+      <c r="C23">
+        <v>0.77665739853179772</v>
+      </c>
+      <c r="D23">
+        <v>0.16086817290048305</v>
+      </c>
+      <c r="E23">
+        <v>0.033202510011382108</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24">
+        <v>0.029441587993851989</v>
+      </c>
+      <c r="C24">
+        <v>0.74001763261187148</v>
+      </c>
+      <c r="D24">
+        <v>0.19204728309880889</v>
+      </c>
+      <c r="E24">
+        <v>0.038493496295467632</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25">
+        <v>0.027256612776539742</v>
+      </c>
+      <c r="C25">
+        <v>0.89731527029508185</v>
+      </c>
+      <c r="D25">
+        <v>0.04107943402758002</v>
+      </c>
+      <c r="E25">
+        <v>0.034348682900798351</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26">
+        <v>0.027441711893391639</v>
+      </c>
+      <c r="C26">
+        <v>0.85852916820701364</v>
+      </c>
+      <c r="D26">
+        <v>0.078828695232794802</v>
+      </c>
+      <c r="E26">
+        <v>0.035200424666799866</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27">
+        <v>0.038832417114111166</v>
+      </c>
+      <c r="C27">
+        <v>0.83586058825103982</v>
+      </c>
+      <c r="D27">
+        <v>0.081808910686264086</v>
+      </c>
+      <c r="E27">
+        <v>0.043498083948585023</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28">
+        <v>0.022734733244118295</v>
+      </c>
+      <c r="C28">
+        <v>0.86906792857342052</v>
+      </c>
+      <c r="D28">
+        <v>0.078515216212830197</v>
+      </c>
+      <c r="E28">
+        <v>0.02968212196963092</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29">
+        <v>0.029799129127561923</v>
+      </c>
+      <c r="C29">
+        <v>0.851048291957618</v>
+      </c>
+      <c r="D29">
+        <v>0.085096802870983784</v>
+      </c>
+      <c r="E29">
+        <v>0.034055776043836243</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30">
+        <v>0.027699182218741639</v>
+      </c>
+      <c r="C30">
+        <v>0.80343072985042074</v>
+      </c>
+      <c r="D30">
+        <v>0.13705380399195607</v>
+      </c>
+      <c r="E30">
+        <v>0.031816283938881647</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31">
+        <v>0.042129092061460954</v>
+      </c>
+      <c r="C31">
+        <v>0.77142214560850042</v>
+      </c>
+      <c r="D31">
+        <v>0.13967081741858975</v>
+      </c>
+      <c r="E31">
+        <v>0.046777944911448793</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32">
+        <v>0.033432916972207002</v>
+      </c>
+      <c r="C32">
+        <v>0.89486556411153162</v>
+      </c>
+      <c r="D32">
+        <v>0.038291107567573854</v>
+      </c>
+      <c r="E32">
+        <v>0.033410411348687573</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33">
+        <v>0.041559989069569446</v>
+      </c>
+      <c r="C33">
+        <v>0.81193351520737855</v>
+      </c>
+      <c r="D33">
+        <v>0.10111280807847511</v>
+      </c>
+      <c r="E33">
+        <v>0.045393687644576824</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B34">
+        <v>0.020199822084905616</v>
+      </c>
+      <c r="C34">
+        <v>0.88756714202818487</v>
+      </c>
+      <c r="D34">
+        <v>0.063017935255492402</v>
+      </c>
+      <c r="E34">
+        <v>0.02921510063141701</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35">
+        <v>0.024279765154445923</v>
+      </c>
+      <c r="C35">
+        <v>0.82682712615277643</v>
+      </c>
+      <c r="D35">
+        <v>0.11736974661881568</v>
+      </c>
+      <c r="E35">
+        <v>0.031523362073961878</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B36">
+        <v>0.063783112615250145</v>
+      </c>
+      <c r="C36">
+        <v>0.61064434354742547</v>
+      </c>
+      <c r="D36">
+        <v>0.24566503913177731</v>
+      </c>
+      <c r="E36">
+        <v>0.079907504705547167</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B37">
+        <v>0.035548305814108609</v>
+      </c>
+      <c r="C37">
+        <v>0.93304733127874551</v>
+      </c>
+      <c r="D37">
+        <v>0.001850523203682277</v>
+      </c>
+      <c r="E37">
+        <v>0.029553839703463577</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38">
+        <v>0.036823098884486788</v>
+      </c>
+      <c r="C38">
+        <v>0.90855951834280502</v>
+      </c>
+      <c r="D38">
+        <v>0.011458525972380028</v>
+      </c>
+      <c r="E38">
+        <v>0.043158856800328105</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B39">
+        <v>0.051036113899007356</v>
+      </c>
+      <c r="C39">
+        <v>0.84008614978444107</v>
+      </c>
+      <c r="D39">
+        <v>0.065080166815375318</v>
+      </c>
+      <c r="E39">
+        <v>0.043797569501176248</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40">
+        <v>0.089705180734118303</v>
+      </c>
+      <c r="C40">
+        <v>0.75095813958980273</v>
+      </c>
+      <c r="D40">
+        <v>0.073040816826098059</v>
+      </c>
+      <c r="E40">
+        <v>0.086295862849980795</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41">
+        <v>0.023112408416467979</v>
+      </c>
+      <c r="C41">
+        <v>0.827628595178312</v>
+      </c>
+      <c r="D41">
+        <v>0.10542245281987474</v>
+      </c>
+      <c r="E41">
+        <v>0.043836543585345326</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B42">
+        <v>0.047537406796514865</v>
+      </c>
+      <c r="C42">
+        <v>0.8888865761012712</v>
+      </c>
+      <c r="D42">
+        <v>0.022422653691564275</v>
+      </c>
+      <c r="E42">
+        <v>0.041153363410649714</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B43">
+        <v>0.059746997666540569</v>
+      </c>
+      <c r="C43">
+        <v>0.87101952713307029</v>
+      </c>
+      <c r="D43">
+        <v>0.017230040474564501</v>
+      </c>
+      <c r="E43">
+        <v>0.052003434725824721</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B44">
+        <v>0.033185999907926603</v>
+      </c>
+      <c r="C44">
+        <v>0.92637048792832988</v>
+      </c>
+      <c r="D44">
+        <v>0.0073741622798301357</v>
+      </c>
+      <c r="E44">
+        <v>0.033069349883913426</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B45">
+        <v>0.10792262084898831</v>
+      </c>
+      <c r="C45">
+        <v>0.65452553507456679</v>
+      </c>
+      <c r="D45">
+        <v>0.096321494570170405</v>
+      </c>
+      <c r="E45">
+        <v>0.14123034950627428</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46">
+        <v>0.060100760125195822</v>
+      </c>
+      <c r="C46">
+        <v>0.73269778071073033</v>
+      </c>
+      <c r="D46">
+        <v>0.15157768566977678</v>
+      </c>
+      <c r="E46">
+        <v>0.055623773494296889</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B47">
+        <v>0.030065033743854996</v>
+      </c>
+      <c r="C47">
+        <v>0.93213368784512307</v>
+      </c>
+      <c r="D47">
+        <v>0.0044687970864350978</v>
+      </c>
+      <c r="E47">
+        <v>0.033332481324586792</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B48">
+        <v>0.053467466055105967</v>
+      </c>
+      <c r="C48">
+        <v>0.65198792025612018</v>
+      </c>
+      <c r="D48">
+        <v>0.22427929434252156</v>
+      </c>
+      <c r="E48">
+        <v>0.070265319346252297</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B49">
+        <v>0.036250611840441753</v>
+      </c>
+      <c r="C49">
+        <v>0.71275096554614914</v>
+      </c>
+      <c r="D49">
+        <v>0.19390611733097862</v>
+      </c>
+      <c r="E49">
+        <v>0.057092305282430512</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50">
+        <v>0.042207256488643312</v>
+      </c>
+      <c r="C50">
+        <v>0.87874612173334432</v>
+      </c>
+      <c r="D50">
+        <v>0.023921396197180173</v>
+      </c>
+      <c r="E50">
+        <v>0.05512522558083216</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B51">
+        <v>0.028353873021547616</v>
+      </c>
+      <c r="C51">
+        <v>0.85009045880898504</v>
+      </c>
+      <c r="D51">
+        <v>0.088870243013118549</v>
+      </c>
+      <c r="E51">
+        <v>0.032685425156348778</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B52">
+        <v>0.072766875075555654</v>
+      </c>
+      <c r="C52">
+        <v>0.62067792411796241</v>
+      </c>
+      <c r="D52">
+        <v>0.21418038809786308</v>
+      </c>
+      <c r="E52">
+        <v>0.092374812708618942</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B53">
+        <v>0.03056990947397149</v>
+      </c>
+      <c r="C53">
+        <v>0.88753575796357687</v>
+      </c>
+      <c r="D53">
+        <v>0.047690438367218604</v>
+      </c>
+      <c r="E53">
+        <v>0.034203894195233071</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54">
+        <v>0.032203753457402</v>
+      </c>
+      <c r="C54">
+        <v>0.67114523498365175</v>
+      </c>
+      <c r="D54">
+        <v>0.25441952887970398</v>
+      </c>
+      <c r="E54">
+        <v>0.042231482679242142</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55">
+        <v>0.027339466529224105</v>
+      </c>
+      <c r="C55">
+        <v>0.88308563531162354</v>
+      </c>
+      <c r="D55">
+        <v>0.055432737980991707</v>
+      </c>
+      <c r="E55">
+        <v>0.034142160178160706</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56">
+        <v>0.02665007838428677</v>
+      </c>
+      <c r="C56">
+        <v>0.84872315822309607</v>
+      </c>
+      <c r="D56">
+        <v>0.091193571663363879</v>
+      </c>
+      <c r="E56">
+        <v>0.03343319172925318</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57">
+        <v>0.034209718082883499</v>
+      </c>
+      <c r="C57">
+        <v>0.8263451782666017</v>
+      </c>
+      <c r="D57">
+        <v>0.09884665365817194</v>
+      </c>
+      <c r="E57">
+        <v>0.040598449992342821</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B58">
+        <v>0.022361365292959522</v>
+      </c>
+      <c r="C58">
+        <v>0.90514106037806963</v>
+      </c>
+      <c r="D58">
+        <v>0.044550978662575069</v>
+      </c>
+      <c r="E58">
+        <v>0.02794659566639569</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59">
+        <v>0.02248487165203706</v>
+      </c>
+      <c r="C59">
+        <v>0.90851551286060828</v>
+      </c>
+      <c r="D59">
+        <v>0.042873064791840054</v>
+      </c>
+      <c r="E59">
+        <v>0.026126550695514651</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B60">
+        <v>0.027482392023226866</v>
+      </c>
+      <c r="C60">
+        <v>0.81271513256230909</v>
+      </c>
+      <c r="D60">
+        <v>0.12441369387742433</v>
+      </c>
+      <c r="E60">
+        <v>0.03538878153703981</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B61">
+        <v>0.04878293195908729</v>
+      </c>
+      <c r="C61">
+        <v>0.81589784200323856</v>
+      </c>
+      <c r="D61">
+        <v>0.054538130570490062</v>
+      </c>
+      <c r="E61">
+        <v>0.080781095467184191</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B62">
+        <v>0.031599394777754503</v>
+      </c>
+      <c r="C62">
+        <v>0.94919929096071809</v>
+      </c>
+      <c r="D62">
+        <v>2.1666452387263811e-05</v>
+      </c>
+      <c r="E62">
+        <v>0.019179647809140138</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B63">
+        <v>0.06302485525937114</v>
+      </c>
+      <c r="C63">
+        <v>0.56123802080541818</v>
+      </c>
+      <c r="D63">
+        <v>0.30462407580717815</v>
+      </c>
+      <c r="E63">
+        <v>0.071113048128032444</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64">
+        <v>0.099001137902717626</v>
+      </c>
+      <c r="C64">
+        <v>0.18678420621345868</v>
+      </c>
+      <c r="D64">
+        <v>0.616492197794134</v>
+      </c>
+      <c r="E64">
+        <v>0.097722458089689823</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B65">
+        <v>0.10336755793130625</v>
+      </c>
+      <c r="C65">
+        <v>0.46276991262679951</v>
+      </c>
+      <c r="D65">
+        <v>0.31186957796222564</v>
+      </c>
+      <c r="E65">
+        <v>0.12199295147966852</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B66">
+        <v>0.072673220773817632</v>
+      </c>
+      <c r="C66">
+        <v>0.25399847467876935</v>
+      </c>
+      <c r="D66">
+        <v>0.60031471563952177</v>
+      </c>
+      <c r="E66">
+        <v>0.073013588907891253</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67">
+        <v>0.063694789759421777</v>
+      </c>
+      <c r="C67">
+        <v>0.34273317538237508</v>
+      </c>
+      <c r="D67">
+        <v>0.52213596722575251</v>
+      </c>
+      <c r="E67">
+        <v>0.071436067632450542</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B68">
+        <v>0.098628032332353191</v>
+      </c>
+      <c r="C68">
+        <v>0.38188250400813817</v>
+      </c>
+      <c r="D68">
+        <v>0.40460565511868002</v>
+      </c>
+      <c r="E68">
+        <v>0.11488380854082866</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B69">
+        <v>0.038153655217248617</v>
+      </c>
+      <c r="C69">
+        <v>0.23056319375272158</v>
+      </c>
+      <c r="D69">
+        <v>0.68478481996723006</v>
+      </c>
+      <c r="E69">
+        <v>0.046498331062799748</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B70">
+        <v>0.038874854902482069</v>
+      </c>
+      <c r="C70">
+        <v>0.13997060922538967</v>
+      </c>
+      <c r="D70">
+        <v>0.7678395080067828</v>
+      </c>
+      <c r="E70">
+        <v>0.053315027865345532</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B71">
+        <v>0.053900041525580207</v>
+      </c>
+      <c r="C71">
+        <v>0.29336591349451524</v>
+      </c>
+      <c r="D71">
+        <v>0.57963946796998977</v>
+      </c>
+      <c r="E71">
+        <v>0.073094577009914743</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B72">
+        <v>0.056641936983353312</v>
+      </c>
+      <c r="C72">
+        <v>0.58083348303886717</v>
+      </c>
+      <c r="D72">
+        <v>0.29397812743911911</v>
+      </c>
+      <c r="E72">
+        <v>0.068546452538660249</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73">
+        <v>0.049424370302150931</v>
+      </c>
+      <c r="C73">
+        <v>0.51303865699902773</v>
+      </c>
+      <c r="D73">
+        <v>0.37588483541527712</v>
+      </c>
+      <c r="E73">
+        <v>0.061652137283544323</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B74">
+        <v>0.035878173734768995</v>
+      </c>
+      <c r="C74">
+        <v>0.28393887410332347</v>
+      </c>
+      <c r="D74">
+        <v>0.63140537156891707</v>
+      </c>
+      <c r="E74">
+        <v>0.048777580592990491</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75">
+        <v>0.031639985048878459</v>
+      </c>
+      <c r="C75">
+        <v>0.46049743900838597</v>
+      </c>
+      <c r="D75">
+        <v>0.46265115031494058</v>
+      </c>
+      <c r="E75">
+        <v>0.045211425627794948</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76">
+        <v>0.036306942769889376</v>
+      </c>
+      <c r="C76">
+        <v>0.62929997631977364</v>
+      </c>
+      <c r="D76">
+        <v>0.28909240677211956</v>
+      </c>
+      <c r="E76">
+        <v>0.045300674138217499</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77">
+        <v>0.038041075482410383</v>
+      </c>
+      <c r="C77">
+        <v>0.4701626945757677</v>
+      </c>
+      <c r="D77">
+        <v>0.44453451183946674</v>
+      </c>
+      <c r="E77">
+        <v>0.047261718102355202</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B78">
+        <v>0.059532961492369335</v>
+      </c>
+      <c r="C78">
+        <v>0.12314232986369288</v>
+      </c>
+      <c r="D78">
+        <v>0.7415934972544912</v>
+      </c>
+      <c r="E78">
+        <v>0.075731211389446593</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79">
+        <v>0.052420724369375948</v>
+      </c>
+      <c r="C79">
+        <v>0.54744063212055316</v>
+      </c>
+      <c r="D79">
+        <v>0.33498397487839154</v>
+      </c>
+      <c r="E79">
+        <v>0.065154668631679208</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B80">
+        <v>0.042979984206237165</v>
+      </c>
+      <c r="C80">
+        <v>0.028991391249936226</v>
+      </c>
+      <c r="D80">
+        <v>0.86796674800792684</v>
+      </c>
+      <c r="E80">
+        <v>0.060061876535899866</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81">
+        <v>0.032779381923532254</v>
+      </c>
+      <c r="C81">
+        <v>0.60423807649742944</v>
+      </c>
+      <c r="D81">
+        <v>0.32031470510901805</v>
+      </c>
+      <c r="E81">
+        <v>0.042667836470020329</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B82">
+        <v>0.035308236860493766</v>
+      </c>
+      <c r="C82">
+        <v>0.64839985614328066</v>
+      </c>
+      <c r="D82">
+        <v>0.27370687235552166</v>
+      </c>
+      <c r="E82">
+        <v>0.042585034640703963</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B83">
+        <v>0.063035811350654683</v>
+      </c>
+      <c r="C83">
+        <v>0.85924352708342833</v>
+      </c>
+      <c r="D83">
+        <v>0.01117684201783288</v>
+      </c>
+      <c r="E83">
+        <v>0.066543819548084152</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84">
+        <v>0.035735826783822942</v>
+      </c>
+      <c r="C84">
+        <v>0.85267342571267501</v>
+      </c>
+      <c r="D84">
+        <v>0.071137926386919501</v>
+      </c>
+      <c r="E84">
+        <v>0.040452821116582535</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B85">
+        <v>0.16162269321063782</v>
+      </c>
+      <c r="C85">
+        <v>0.39954239155006926</v>
+      </c>
+      <c r="D85">
+        <v>0.25692583762324817</v>
+      </c>
+      <c r="E85">
+        <v>0.18190907761604469</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86">
+        <v>0.1722613610385676</v>
+      </c>
+      <c r="C86">
+        <v>0.30591439097084638</v>
+      </c>
+      <c r="D86">
+        <v>0.32941918604022841</v>
+      </c>
+      <c r="E86">
+        <v>0.19240506195035759</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>